--- a/premium/src/main/resources/AnnualCheckUp.xlsx
+++ b/premium/src/main/resources/AnnualCheckUp.xlsx
@@ -5,10 +5,10 @@
   <workbookPr defaultThemeVersion="166925"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/nikash/Desktop/"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="/Users/anil.juneja/Downloads/superstar/superstar/premium/src/main/resources/"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="8_{AD1854F8-8092-1743-B665-7A2BF5F4CB41}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{6E2724E0-8130-4E41-B0D0-4B66AE0B9FDF}" xr6:coauthVersionLast="36" xr6:coauthVersionMax="36" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="680" yWindow="740" windowWidth="28040" windowHeight="16680" xr2:uid="{9F2811DC-AE56-3642-A3F8-7F4160F7C7EC}"/>
   </bookViews>
@@ -125,18 +125,15 @@
   <cellStyleXfs count="1">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0"/>
   </cellStyleXfs>
-  <cellXfs count="6">
+  <cellXfs count="5">
     <xf numFmtId="0" fontId="0" fillId="0" borderId="0" xfId="0"/>
-    <xf numFmtId="0" fontId="1" fillId="2" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
+      <alignment horizontal="center" vertical="center" wrapText="1"/>
+    </xf>
+    <xf numFmtId="49" fontId="1" fillId="2" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
-    <xf numFmtId="3" fontId="2" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="2" fillId="0" borderId="1" xfId="0" applyFont="1" applyBorder="1" applyAlignment="1">
-      <alignment horizontal="center" vertical="center" wrapText="1"/>
-    </xf>
-    <xf numFmtId="0" fontId="3" fillId="3" borderId="1" xfId="0" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
+    <xf numFmtId="49" fontId="3" fillId="3" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyFill="1" applyBorder="1" applyAlignment="1">
       <alignment horizontal="center" vertical="center"/>
     </xf>
     <xf numFmtId="0" fontId="4" fillId="0" borderId="1" xfId="0" applyNumberFormat="1" applyFont="1" applyBorder="1" applyAlignment="1">
@@ -459,7 +456,7 @@
   <dimension ref="A1:J3"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="H18" sqref="H18"/>
+      <selection activeCell="A2" sqref="A2"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr baseColWidth="10" defaultRowHeight="16" x14ac:dyDescent="0.2"/>
@@ -468,98 +465,98 @@
   </cols>
   <sheetData>
     <row r="1" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A1" s="1" t="s">
+      <c r="A1" s="2" t="s">
         <v>0</v>
       </c>
-      <c r="B1" s="2">
+      <c r="B1" s="1">
         <v>500000</v>
       </c>
-      <c r="C1" s="2">
+      <c r="C1" s="1">
         <v>750000</v>
       </c>
-      <c r="D1" s="2">
+      <c r="D1" s="1">
         <v>1000000</v>
       </c>
-      <c r="E1" s="2">
+      <c r="E1" s="1">
         <v>1500000</v>
       </c>
-      <c r="F1" s="2">
+      <c r="F1" s="1">
         <v>2000000</v>
       </c>
-      <c r="G1" s="2">
+      <c r="G1" s="1">
         <v>2500000</v>
       </c>
-      <c r="H1" s="2">
+      <c r="H1" s="1">
         <v>5000000</v>
       </c>
-      <c r="I1" s="2">
+      <c r="I1" s="1">
         <v>10000000</v>
       </c>
-      <c r="J1" s="3" t="s">
+      <c r="J1" s="1" t="s">
         <v>1</v>
       </c>
     </row>
     <row r="2" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A2" s="4" t="s">
+      <c r="A2" s="3" t="s">
         <v>2</v>
       </c>
-      <c r="B2" s="5">
+      <c r="B2" s="4">
         <v>700</v>
       </c>
-      <c r="C2" s="5">
+      <c r="C2" s="4">
         <v>800</v>
       </c>
-      <c r="D2" s="5">
+      <c r="D2" s="4">
         <v>900</v>
       </c>
-      <c r="E2" s="5">
+      <c r="E2" s="4">
         <v>1000</v>
       </c>
-      <c r="F2" s="5">
+      <c r="F2" s="4">
         <v>1100</v>
       </c>
-      <c r="G2" s="5">
+      <c r="G2" s="4">
         <v>1200</v>
       </c>
-      <c r="H2" s="5">
+      <c r="H2" s="4">
         <v>1200</v>
       </c>
-      <c r="I2" s="5">
+      <c r="I2" s="4">
         <v>1200</v>
       </c>
-      <c r="J2" s="5">
+      <c r="J2" s="4">
         <v>1200</v>
       </c>
     </row>
     <row r="3" spans="1:10" x14ac:dyDescent="0.2">
-      <c r="A3" s="4" t="s">
+      <c r="A3" s="3" t="s">
         <v>3</v>
       </c>
-      <c r="B3" s="5">
+      <c r="B3" s="4">
         <v>1120</v>
       </c>
-      <c r="C3" s="5">
+      <c r="C3" s="4">
         <v>1280</v>
       </c>
-      <c r="D3" s="5">
+      <c r="D3" s="4">
         <v>1440</v>
       </c>
-      <c r="E3" s="5">
+      <c r="E3" s="4">
         <v>1600</v>
       </c>
-      <c r="F3" s="5">
+      <c r="F3" s="4">
         <v>1760</v>
       </c>
-      <c r="G3" s="5">
+      <c r="G3" s="4">
         <v>1920</v>
       </c>
-      <c r="H3" s="5">
+      <c r="H3" s="4">
         <v>1920</v>
       </c>
-      <c r="I3" s="5">
+      <c r="I3" s="4">
         <v>1920</v>
       </c>
-      <c r="J3" s="5">
+      <c r="J3" s="4">
         <v>1920</v>
       </c>
     </row>
